--- a/sample_timetable_data.xlsx
+++ b/sample_timetable_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,22 +914,22 @@
         <v>VI CSE</v>
       </c>
       <c r="B13" t="str">
-        <v>CS2611</v>
+        <v>ED2VA1</v>
       </c>
       <c r="C13" t="str">
-        <v>Cryptography and cyber security (Integrated Lab)</v>
+        <v>Value added course - Entrepreneurship Development</v>
       </c>
       <c r="D13" t="str">
-        <v>MST</v>
+        <v>PAC</v>
       </c>
       <c r="E13" t="str">
-        <v>GM</v>
+        <v>NPP</v>
       </c>
       <c r="F13" t="str">
-        <v>VP</v>
+        <v>SGR</v>
       </c>
       <c r="G13" t="str">
-        <v>ND</v>
+        <v>RSA</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -944,7 +944,7 @@
         <v>NO</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -955,22 +955,22 @@
         <v>VI CSE</v>
       </c>
       <c r="B14" t="str">
-        <v>CS2612</v>
+        <v>IT3412</v>
       </c>
       <c r="C14" t="str">
-        <v>Internet of Things (Integrated Lab)</v>
+        <v>IIT Spoken Tutorial class</v>
       </c>
       <c r="D14" t="str">
-        <v>ATP</v>
+        <v>LA1</v>
       </c>
       <c r="E14" t="str">
-        <v>SSB</v>
+        <v>LA2</v>
       </c>
       <c r="F14" t="str">
-        <v>CS</v>
+        <v>LA3</v>
       </c>
       <c r="G14" t="str">
-        <v>MJ</v>
+        <v>LA4</v>
       </c>
       <c r="H14" t="str">
         <v/>
@@ -979,16 +979,16 @@
         <v>4</v>
       </c>
       <c r="J14" t="str">
-        <v>CSE</v>
+        <v>IT</v>
       </c>
       <c r="K14" t="str">
         <v>NO</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -996,22 +996,22 @@
         <v>VI CSE</v>
       </c>
       <c r="B15" t="str">
-        <v>CS2698</v>
+        <v>CS2611</v>
       </c>
       <c r="C15" t="str">
-        <v>MiniProject</v>
+        <v>Cryptography and cyber security (Integrated Lab)</v>
       </c>
       <c r="D15" t="str">
-        <v>SAA</v>
+        <v>MST</v>
       </c>
       <c r="E15" t="str">
-        <v>RAS</v>
+        <v>GM</v>
       </c>
       <c r="F15" t="str">
-        <v>RSK</v>
+        <v>VP</v>
       </c>
       <c r="G15" t="str">
-        <v>RSA</v>
+        <v>ND</v>
       </c>
       <c r="H15" t="str">
         <v/>
@@ -1026,15 +1026,97 @@
         <v>NO</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>VI CSE</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CS2612</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Internet of Things (Integrated Lab)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>ATP</v>
+      </c>
+      <c r="E16" t="str">
+        <v>SSB</v>
+      </c>
+      <c r="F16" t="str">
+        <v>CS</v>
+      </c>
+      <c r="G16" t="str">
+        <v>MJ</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="K16" t="str">
+        <v>NO</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>VI CSE</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CS2698</v>
+      </c>
+      <c r="C17" t="str">
+        <v>MiniProject</v>
+      </c>
+      <c r="D17" t="str">
+        <v>SAA</v>
+      </c>
+      <c r="E17" t="str">
+        <v>RAS</v>
+      </c>
+      <c r="F17" t="str">
+        <v>RSK</v>
+      </c>
+      <c r="G17" t="str">
+        <v>RSA</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="K17" t="str">
+        <v>NO</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M17"/>
   </ignoredErrors>
 </worksheet>
 </file>